--- a/抖音视频分红.xlsx
+++ b/抖音视频分红.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,60 +453,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>和不扫兴的对象拍婚纱照转场～真的超甜</t>
+          <t>忍不住分享花絮💐姊妹湖的花船美到犯规啦</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>备婚日记之深圳拍婚纱照vlog</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>用婚纱照转场开启我的人生新副本啦💥</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>花仙子的婚纱照花絮✨森系氛围太美啦💐</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
